--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,10 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>29 Mar -- 04 Apr 2020</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>05 Apr -- 11 Apr 2020</t>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,25 +588,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1154.86</v>
+        <v>2087.86</v>
       </c>
       <c r="D2">
-        <v>1154.86</v>
+        <v>2087.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="H2">
-        <v>41.3</v>
+        <v>51.05</v>
       </c>
       <c r="I2">
-        <v>1076.98</v>
+        <v>1332.98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +617,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2087.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D3">
-        <v>2087.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,16 +637,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="D4">
-        <v>2148.43</v>
+        <v>2202.86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -654,16 +657,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D5">
-        <v>2202.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,16 +677,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="D6">
-        <v>1933.57</v>
+        <v>1753.71</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D7">
-        <v>1753.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,16 +717,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="D8">
-        <v>1426.86</v>
+        <v>1220.57</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,16 +737,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="D9">
-        <v>1220.57</v>
+        <v>946.14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,16 +757,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="D10">
-        <v>946.14</v>
+        <v>873.71</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,16 +777,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="D11">
-        <v>873.71</v>
+        <v>744.29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +797,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="D12">
-        <v>744.29</v>
+        <v>602.14</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,16 +817,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="D13">
-        <v>602.14</v>
+        <v>565.86</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -834,16 +837,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="D14">
-        <v>565.86</v>
+        <v>524.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -854,16 +857,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="D15">
-        <v>524.14</v>
+        <v>748.86</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -874,16 +877,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="D16">
-        <v>748.86</v>
+        <v>786.29</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,16 +897,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="D17">
-        <v>786.29</v>
+        <v>922</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,16 +917,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="D18">
-        <v>922</v>
+        <v>1140.43</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,16 +937,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D19">
-        <v>1140.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="D20">
-        <v>1038.43</v>
+        <v>1007.43</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,16 +977,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>1007.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D21">
-        <v>858.38</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E21">
-        <v>149.05</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,16 +997,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>973.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D22">
-        <v>1010.28</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E22">
-        <v>36.85</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,16 +1017,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>894.5700000000001</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D23">
-        <v>1064.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E23">
-        <v>169.56</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,16 +1037,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>846.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D24">
-        <v>1013.62</v>
+        <v>733.14</v>
       </c>
       <c r="E24">
-        <v>167.19</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,16 +1057,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>733.14</v>
+        <v>797.86</v>
       </c>
       <c r="D25">
-        <v>969.95</v>
+        <v>797.86</v>
       </c>
       <c r="E25">
-        <v>236.81</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>797.86</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D26">
-        <v>984.45</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E26">
-        <v>186.6</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,16 +1097,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>766.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="D27">
-        <v>923.9400000000001</v>
+        <v>702.14</v>
       </c>
       <c r="E27">
-        <v>157.51</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,16 +1117,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>702.14</v>
+        <v>714.29</v>
       </c>
       <c r="D28">
-        <v>927.6900000000001</v>
+        <v>714.29</v>
       </c>
       <c r="E28">
-        <v>225.54</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,16 +1137,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>714.29</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D29">
-        <v>866.8</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E29">
-        <v>152.52</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,16 +1157,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>717.4299999999999</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D30">
-        <v>899.28</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E30">
-        <v>181.85</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>821.5700000000001</v>
+        <v>819</v>
       </c>
       <c r="D31">
-        <v>901.78</v>
+        <v>819</v>
       </c>
       <c r="E31">
-        <v>80.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,19 +1197,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>819</v>
+        <v>994.86</v>
       </c>
       <c r="D32">
-        <v>881.71</v>
+        <v>994.86</v>
       </c>
       <c r="E32">
-        <v>62.71</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1214,19 +1217,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>994.86</v>
+        <v>1087.29</v>
       </c>
       <c r="D33">
-        <v>926.11</v>
+        <v>1087.29</v>
       </c>
       <c r="E33">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1234,19 +1237,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>1087.29</v>
+        <v>1466.29</v>
       </c>
       <c r="D34">
-        <v>851.78</v>
+        <v>1466.29</v>
       </c>
       <c r="E34">
-        <v>235.51</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1254,19 +1257,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>1466.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D35">
-        <v>833.6799999999999</v>
+        <v>1447.14</v>
       </c>
       <c r="E35">
-        <v>632.61</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1274,19 +1277,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>1447.14</v>
+        <v>2150.29</v>
       </c>
       <c r="D36">
-        <v>902.37</v>
+        <v>2150.29</v>
       </c>
       <c r="E36">
-        <v>544.77</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1294,19 +1297,19 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>2150.29</v>
+        <v>2383.14</v>
       </c>
       <c r="D37">
-        <v>991.0700000000001</v>
+        <v>2383.14</v>
       </c>
       <c r="E37">
-        <v>1159.22</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1314,19 +1317,19 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>2383.14</v>
+        <v>2607.86</v>
       </c>
       <c r="D38">
-        <v>1252.46</v>
+        <v>1346.49</v>
       </c>
       <c r="E38">
-        <v>1130.68</v>
+        <v>1261.36</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1334,19 +1337,19 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>2607.86</v>
+        <v>2250</v>
       </c>
       <c r="D39">
-        <v>1530.87</v>
+        <v>1296.42</v>
       </c>
       <c r="E39">
-        <v>1076.98</v>
+        <v>953.58</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1354,51 +1357,33 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>2250</v>
+        <v>2611</v>
       </c>
       <c r="D40">
-        <v>1497.64</v>
+        <v>1306.24</v>
       </c>
       <c r="E40">
-        <v>752.36</v>
+        <v>1304.76</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40">
-        <v>752.36</v>
-      </c>
-      <c r="K40">
-        <v>33.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C41">
-        <v>2611</v>
-      </c>
       <c r="D41">
-        <v>1540.48</v>
-      </c>
-      <c r="E41">
-        <v>1070.52</v>
+        <v>1235.13</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="J41">
-        <v>911.4400000000001</v>
-      </c>
-      <c r="K41">
-        <v>37.22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1406,13 +1391,13 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1608.28</v>
+        <v>1126.47</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1420,10 +1405,24 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1502.67</v>
+        <v>1323.25</v>
       </c>
       <c r="F43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1173.92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,21 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>29 Mar -- 04 Apr 2020</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -179,6 +191,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -539,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,28 +600,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2087.86</v>
+        <v>1154.86</v>
       </c>
       <c r="D2">
-        <v>2087.86</v>
+        <v>1154.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>51.05</v>
+        <v>41.3</v>
       </c>
       <c r="I2">
-        <v>1332.98</v>
+        <v>1076.98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,19 +629,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2148.43</v>
+        <v>2087.86</v>
       </c>
       <c r="D3">
-        <v>2148.43</v>
+        <v>2087.86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -634,19 +649,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D4">
-        <v>2202.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -654,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="D5">
-        <v>1933.57</v>
+        <v>2202.86</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -674,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="D6">
-        <v>1753.71</v>
+        <v>1933.57</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -694,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="D7">
-        <v>1426.86</v>
+        <v>1753.71</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,19 +729,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="D8">
-        <v>1220.57</v>
+        <v>1426.86</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,19 +749,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="D9">
-        <v>946.14</v>
+        <v>1220.57</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,19 +769,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="D10">
-        <v>873.71</v>
+        <v>946.14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +789,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="D11">
-        <v>744.29</v>
+        <v>873.71</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,19 +809,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="D12">
-        <v>602.14</v>
+        <v>744.29</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -814,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="D13">
-        <v>565.86</v>
+        <v>602.14</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -834,19 +849,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="D14">
-        <v>524.14</v>
+        <v>565.86</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -854,19 +869,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="D15">
-        <v>748.86</v>
+        <v>524.14</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -874,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="D16">
-        <v>786.29</v>
+        <v>748.86</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -894,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="D17">
-        <v>922</v>
+        <v>786.29</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -914,19 +929,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="D18">
-        <v>1140.43</v>
+        <v>922</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -934,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="D19">
-        <v>1038.43</v>
+        <v>1140.43</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -954,19 +969,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="D20">
-        <v>1007.43</v>
+        <v>1038.43</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -974,19 +989,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>973.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D21">
-        <v>973.4299999999999</v>
+        <v>858.38</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -994,19 +1009,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>894.5700000000001</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D22">
-        <v>894.5700000000001</v>
+        <v>1010.28</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1014,19 +1029,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>846.4299999999999</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D23">
-        <v>846.4299999999999</v>
+        <v>1064.14</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1034,19 +1049,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>733.14</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D24">
-        <v>733.14</v>
+        <v>1013.62</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1054,19 +1069,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>797.86</v>
+        <v>733.14</v>
       </c>
       <c r="D25">
-        <v>797.86</v>
+        <v>969.95</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1074,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>766.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="D26">
-        <v>766.4299999999999</v>
+        <v>984.45</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1094,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>702.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D27">
-        <v>702.14</v>
+        <v>923.9400000000001</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1114,19 +1129,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>714.29</v>
+        <v>702.14</v>
       </c>
       <c r="D28">
-        <v>714.29</v>
+        <v>927.6900000000001</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1134,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>717.4299999999999</v>
+        <v>714.29</v>
       </c>
       <c r="D29">
-        <v>717.4299999999999</v>
+        <v>866.8</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1154,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>821.5700000000001</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D30">
-        <v>821.5700000000001</v>
+        <v>899.28</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1174,19 +1189,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>819</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D31">
-        <v>819</v>
+        <v>901.78</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1194,235 +1209,527 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
+        <v>819</v>
+      </c>
+      <c r="D32">
+        <v>881.71</v>
+      </c>
+      <c r="E32">
+        <v>62.71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
         <v>994.86</v>
       </c>
-      <c r="D32">
-        <v>994.86</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33">
+        <v>926.11</v>
+      </c>
+      <c r="E33">
+        <v>68.75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>1087.29</v>
+      </c>
+      <c r="D34">
+        <v>851.78</v>
+      </c>
+      <c r="E34">
+        <v>235.51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1466.29</v>
+      </c>
+      <c r="D35">
+        <v>833.6799999999999</v>
+      </c>
+      <c r="E35">
+        <v>632.61</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>1447.14</v>
+      </c>
+      <c r="D36">
+        <v>902.37</v>
+      </c>
+      <c r="E36">
+        <v>544.77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2150.29</v>
+      </c>
+      <c r="D37">
+        <v>991.0700000000001</v>
+      </c>
+      <c r="E37">
+        <v>1159.22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2383.14</v>
+      </c>
+      <c r="D38">
+        <v>1252.46</v>
+      </c>
+      <c r="E38">
+        <v>1130.68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2607.86</v>
+      </c>
+      <c r="D39">
+        <v>1530.87</v>
+      </c>
+      <c r="E39">
+        <v>1076.98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2243.29</v>
+      </c>
+      <c r="D40">
+        <v>1497.64</v>
+      </c>
+      <c r="E40">
+        <v>745.65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>745.65</v>
+      </c>
+      <c r="K40">
+        <v>33.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>2604.14</v>
+      </c>
+      <c r="D41">
+        <v>1540.48</v>
+      </c>
+      <c r="E41">
+        <v>1063.66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>904.66</v>
+      </c>
+      <c r="K41">
+        <v>37.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>1087.29</v>
-      </c>
-      <c r="D33">
-        <v>1087.29</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>1466.29</v>
-      </c>
-      <c r="D34">
-        <v>1466.29</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>1447.14</v>
-      </c>
-      <c r="D35">
-        <v>1447.14</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2150.29</v>
-      </c>
-      <c r="D36">
-        <v>2150.29</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2383.14</v>
-      </c>
-      <c r="D37">
-        <v>2383.14</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2607.86</v>
-      </c>
-      <c r="D38">
-        <v>1346.49</v>
-      </c>
-      <c r="E38">
-        <v>1261.36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39">
-        <v>2250</v>
-      </c>
-      <c r="D39">
-        <v>1296.42</v>
-      </c>
-      <c r="E39">
-        <v>953.58</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>2611</v>
-      </c>
-      <c r="D40">
-        <v>1306.24</v>
-      </c>
-      <c r="E40">
-        <v>1304.76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1235.13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
+      <c r="C42">
+        <v>3174.14</v>
       </c>
       <c r="D42">
-        <v>1126.47</v>
+        <v>1608.28</v>
+      </c>
+      <c r="E42">
+        <v>1565.86</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>1125.06</v>
+      </c>
+      <c r="K42">
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>3333.57</v>
       </c>
       <c r="D43">
-        <v>1323.25</v>
+        <v>1502.67</v>
+      </c>
+      <c r="E43">
+        <v>1830.9</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>1301.52</v>
+      </c>
+      <c r="K43">
+        <v>44.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
+      <c r="C44">
+        <v>2604.14</v>
+      </c>
       <c r="D44">
-        <v>1173.92</v>
+        <v>1643.82</v>
+      </c>
+      <c r="E44">
+        <v>960.3200000000001</v>
       </c>
       <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44">
+        <v>33.55</v>
+      </c>
+      <c r="I44">
+        <v>752.55</v>
+      </c>
+      <c r="J44">
+        <v>1233.28</v>
+      </c>
+      <c r="K44">
+        <v>43.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
+      </c>
+      <c r="C45">
+        <v>3174.14</v>
+      </c>
+      <c r="D45">
+        <v>1794.89</v>
+      </c>
+      <c r="E45">
+        <v>1379.26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>1257.61</v>
+      </c>
+      <c r="K45">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>3333.57</v>
+      </c>
+      <c r="D46">
+        <v>1851.39</v>
+      </c>
+      <c r="E46">
+        <v>1482.19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>1289.69</v>
+      </c>
+      <c r="K46">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>1892.79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>3174.14</v>
+      </c>
+      <c r="D48">
+        <v>1092.7</v>
+      </c>
+      <c r="E48">
+        <v>2081.44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48">
+        <v>0.87</v>
+      </c>
+      <c r="H48">
+        <v>51.05</v>
+      </c>
+      <c r="I48">
+        <v>1332.98</v>
+      </c>
+      <c r="J48">
+        <v>1388.66</v>
+      </c>
+      <c r="K48">
+        <v>46.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>3333.57</v>
+      </c>
+      <c r="D49">
+        <v>1145.09</v>
+      </c>
+      <c r="E49">
+        <v>2188.48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49">
+        <v>1477.53</v>
+      </c>
+      <c r="K49">
+        <v>48.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>1324.15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>1054.03</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>3333.57</v>
+      </c>
+      <c r="D52">
+        <v>1908.76</v>
+      </c>
+      <c r="E52">
+        <v>1424.81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52">
+        <v>1.15</v>
+      </c>
+      <c r="H52">
+        <v>61.9</v>
+      </c>
+      <c r="I52">
+        <v>1964.95</v>
+      </c>
+      <c r="J52">
+        <v>1472.26</v>
+      </c>
+      <c r="K52">
+        <v>47.71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>1846.94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>1958.19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>2407.45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,6 +1732,74 @@
         <v>60</v>
       </c>
     </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>3333.57</v>
+      </c>
+      <c r="D56">
+        <v>1604.21</v>
+      </c>
+      <c r="E56">
+        <v>1729.36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>1495.63</v>
+      </c>
+      <c r="K56">
+        <v>48.09</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>1915.89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>2104.94</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>2208.2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1154.86</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2087.86</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2148.43</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2202.86</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1933.57</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1753.71</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1426.86</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1220.57</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>946.14</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>873.71</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>744.29</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>602.14</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>565.86</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>524.14</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>748.86</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>786.29</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>1140.43</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1038.43</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1007.43</v>
@@ -1001,7 +1007,7 @@
         <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>973.4299999999999</v>
@@ -1021,7 +1027,7 @@
         <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>894.5700000000001</v>
@@ -1041,7 +1047,7 @@
         <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>846.4299999999999</v>
@@ -1061,7 +1067,7 @@
         <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>733.14</v>
@@ -1081,7 +1087,7 @@
         <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>797.86</v>
@@ -1101,7 +1107,7 @@
         <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>766.4299999999999</v>
@@ -1121,7 +1127,7 @@
         <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>702.14</v>
@@ -1141,7 +1147,7 @@
         <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>714.29</v>
@@ -1161,7 +1167,7 @@
         <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>717.4299999999999</v>
@@ -1181,7 +1187,7 @@
         <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>821.5700000000001</v>
@@ -1201,7 +1207,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>819</v>
@@ -1221,7 +1227,7 @@
         <v>62.71</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>994.86</v>
@@ -1241,7 +1247,7 @@
         <v>68.75</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>1087.29</v>
@@ -1261,7 +1267,7 @@
         <v>235.51</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>1466.29</v>
@@ -1281,7 +1287,7 @@
         <v>632.61</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>1447.14</v>
@@ -1301,7 +1307,7 @@
         <v>544.77</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>2150.29</v>
@@ -1321,7 +1327,7 @@
         <v>1159.22</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>2383.14</v>
@@ -1341,7 +1347,7 @@
         <v>1130.68</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>2607.86</v>
@@ -1361,7 +1367,7 @@
         <v>1076.98</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2243.29</v>
@@ -1381,7 +1387,7 @@
         <v>745.65</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>745.65</v>
@@ -1395,25 +1401,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D41">
         <v>1540.48</v>
       </c>
       <c r="E41">
-        <v>1063.66</v>
+        <v>1063.95</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J41">
-        <v>904.66</v>
+        <v>904.8</v>
       </c>
       <c r="K41">
-        <v>37.04</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,25 +1427,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D42">
         <v>1608.28</v>
       </c>
       <c r="E42">
-        <v>1565.86</v>
+        <v>1564.58</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J42">
-        <v>1125.06</v>
+        <v>1124.73</v>
       </c>
       <c r="K42">
-        <v>41.14</v>
+        <v>41.13</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>3333.57</v>
@@ -1459,10 +1465,10 @@
         <v>1830.9</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J43">
-        <v>1301.52</v>
+        <v>1301.27</v>
       </c>
       <c r="K43">
         <v>44.58</v>
@@ -1473,19 +1479,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D44">
         <v>1643.82</v>
       </c>
       <c r="E44">
-        <v>960.3200000000001</v>
+        <v>960.6</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>33.55</v>
@@ -1494,7 +1500,7 @@
         <v>752.55</v>
       </c>
       <c r="J44">
-        <v>1233.28</v>
+        <v>1233.14</v>
       </c>
       <c r="K44">
         <v>43.04</v>
@@ -1505,22 +1511,22 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D45">
         <v>1794.89</v>
       </c>
       <c r="E45">
-        <v>1379.26</v>
+        <v>1377.97</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J45">
-        <v>1257.61</v>
+        <v>1257.28</v>
       </c>
       <c r="K45">
         <v>43.11</v>
@@ -1531,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>3333.57</v>
@@ -1543,10 +1549,10 @@
         <v>1482.19</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>1289.69</v>
+        <v>1289.41</v>
       </c>
       <c r="K46">
         <v>43.3</v>
@@ -1557,13 +1563,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>1892.79</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1571,19 +1577,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D48">
         <v>1092.7</v>
       </c>
       <c r="E48">
-        <v>2081.44</v>
+        <v>2080.16</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>0.87</v>
@@ -1595,10 +1601,10 @@
         <v>1332.98</v>
       </c>
       <c r="J48">
-        <v>1388.66</v>
+        <v>1388.25</v>
       </c>
       <c r="K48">
-        <v>46.09</v>
+        <v>46.08</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1606,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>3333.57</v>
@@ -1618,10 +1624,10 @@
         <v>2188.48</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J49">
-        <v>1477.53</v>
+        <v>1477.16</v>
       </c>
       <c r="K49">
         <v>48.26</v>
@@ -1632,13 +1638,13 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>1324.15</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1646,13 +1652,13 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>1054.03</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1660,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>3333.57</v>
@@ -1672,7 +1678,7 @@
         <v>1424.81</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>1.15</v>
@@ -1684,7 +1690,7 @@
         <v>1964.95</v>
       </c>
       <c r="J52">
-        <v>1472.26</v>
+        <v>1471.93</v>
       </c>
       <c r="K52">
         <v>47.71</v>
@@ -1695,13 +1701,13 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>1846.94</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1709,13 +1715,13 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>1958.19</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1723,13 +1729,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>2407.45</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1737,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>3333.57</v>
@@ -1749,13 +1755,13 @@
         <v>1729.36</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J56">
-        <v>1495.63</v>
+        <v>1495.33</v>
       </c>
       <c r="K56">
-        <v>48.09</v>
+        <v>48.08</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1763,13 +1769,13 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>1915.89</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1777,13 +1783,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>2104.94</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1791,13 +1797,78 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>2208.2</v>
       </c>
       <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>1892.43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60">
+        <v>1.01</v>
+      </c>
+      <c r="H60">
+        <v>57.35</v>
+      </c>
+      <c r="I60">
+        <v>1911.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>2023.04</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
         <v>60</v>
+      </c>
+      <c r="D62">
+        <v>2277.78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>2587.36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1154.86</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2087.86</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2148.43</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2202.86</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1933.57</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1753.71</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1426.86</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1220.57</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>946.14</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>873.71</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>744.29</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>602.14</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>565.86</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>524.14</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>748.86</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>786.29</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1140.43</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1038.43</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>1007.43</v>
@@ -1007,7 +1013,7 @@
         <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>973.4299999999999</v>
@@ -1027,7 +1033,7 @@
         <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>894.5700000000001</v>
@@ -1047,7 +1053,7 @@
         <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>846.4299999999999</v>
@@ -1067,7 +1073,7 @@
         <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>733.14</v>
@@ -1087,7 +1093,7 @@
         <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>797.86</v>
@@ -1107,7 +1113,7 @@
         <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>766.4299999999999</v>
@@ -1127,7 +1133,7 @@
         <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>702.14</v>
@@ -1147,7 +1153,7 @@
         <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>714.29</v>
@@ -1167,7 +1173,7 @@
         <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>717.4299999999999</v>
@@ -1187,7 +1193,7 @@
         <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>821.5700000000001</v>
@@ -1207,7 +1213,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>819</v>
@@ -1227,7 +1233,7 @@
         <v>62.71</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>994.86</v>
@@ -1247,7 +1253,7 @@
         <v>68.75</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>1087.29</v>
@@ -1267,7 +1273,7 @@
         <v>235.51</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>1466.29</v>
@@ -1287,7 +1293,7 @@
         <v>632.61</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>1447.14</v>
@@ -1307,7 +1313,7 @@
         <v>544.77</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>2150.29</v>
@@ -1327,7 +1333,7 @@
         <v>1159.22</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>2383.14</v>
@@ -1347,7 +1353,7 @@
         <v>1130.68</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>2607.86</v>
@@ -1367,7 +1373,7 @@
         <v>1076.98</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>2243.29</v>
@@ -1387,7 +1393,7 @@
         <v>745.65</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40">
         <v>745.65</v>
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2604.43</v>
@@ -1413,7 +1419,7 @@
         <v>1063.95</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J41">
         <v>904.8</v>
@@ -1427,25 +1433,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D42">
         <v>1608.28</v>
       </c>
       <c r="E42">
-        <v>1564.58</v>
+        <v>1566.01</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J42">
-        <v>1124.73</v>
+        <v>1125.2</v>
       </c>
       <c r="K42">
-        <v>41.13</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1453,25 +1459,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D43">
         <v>1502.67</v>
       </c>
       <c r="E43">
-        <v>1830.9</v>
+        <v>1832.62</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J43">
-        <v>1301.27</v>
+        <v>1302.06</v>
       </c>
       <c r="K43">
-        <v>44.58</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>2604.43</v>
@@ -1491,7 +1497,7 @@
         <v>960.6</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H44">
         <v>33.55</v>
@@ -1500,10 +1506,10 @@
         <v>752.55</v>
       </c>
       <c r="J44">
-        <v>1233.14</v>
+        <v>1233.77</v>
       </c>
       <c r="K44">
-        <v>43.04</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1511,25 +1517,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D45">
         <v>1794.89</v>
       </c>
       <c r="E45">
-        <v>1377.97</v>
+        <v>1379.4</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
-        <v>1257.28</v>
+        <v>1258.04</v>
       </c>
       <c r="K45">
-        <v>43.11</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1537,25 +1543,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D46">
         <v>1851.39</v>
       </c>
       <c r="E46">
-        <v>1482.19</v>
+        <v>1483.9</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
-        <v>1289.41</v>
+        <v>1290.3</v>
       </c>
       <c r="K46">
-        <v>43.3</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1563,13 +1569,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>3085.57</v>
       </c>
       <c r="D47">
         <v>1892.79</v>
       </c>
+      <c r="E47">
+        <v>1192.79</v>
+      </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J47">
+        <v>1278.11</v>
+      </c>
+      <c r="K47">
+        <v>42.73</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1577,19 +1595,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D48">
         <v>1092.7</v>
       </c>
       <c r="E48">
-        <v>2080.16</v>
+        <v>2081.59</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G48">
         <v>0.87</v>
@@ -1601,10 +1619,10 @@
         <v>1332.98</v>
       </c>
       <c r="J48">
-        <v>1388.25</v>
+        <v>1367.39</v>
       </c>
       <c r="K48">
-        <v>46.08</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1612,25 +1630,25 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D49">
         <v>1145.09</v>
       </c>
       <c r="E49">
-        <v>2188.48</v>
+        <v>2190.2</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
-        <v>1477.16</v>
+        <v>1449.67</v>
       </c>
       <c r="K49">
-        <v>48.26</v>
+        <v>47.31</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1638,13 +1656,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>3085.57</v>
       </c>
       <c r="D50">
         <v>1324.15</v>
       </c>
+      <c r="E50">
+        <v>1761.42</v>
+      </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J50">
+        <v>1478.01</v>
+      </c>
+      <c r="K50">
+        <v>48.2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,13 +1682,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>3141</v>
       </c>
       <c r="D51">
         <v>1054.03</v>
       </c>
+      <c r="E51">
+        <v>2086.97</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>1528.76</v>
+      </c>
+      <c r="K51">
+        <v>49.72</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,19 +1708,19 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D52">
         <v>1908.76</v>
       </c>
       <c r="E52">
-        <v>1424.81</v>
+        <v>1426.52</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G52">
         <v>1.15</v>
@@ -1690,10 +1732,10 @@
         <v>1964.95</v>
       </c>
       <c r="J52">
-        <v>1471.93</v>
+        <v>1520.89</v>
       </c>
       <c r="K52">
-        <v>47.71</v>
+        <v>49.18</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1701,13 +1743,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>3085.57</v>
       </c>
       <c r="D53">
         <v>1846.94</v>
       </c>
+      <c r="E53">
+        <v>1238.63</v>
+      </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J53">
+        <v>1500.73</v>
+      </c>
+      <c r="K53">
+        <v>48.54</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1715,13 +1769,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>3141</v>
       </c>
       <c r="D54">
         <v>1958.19</v>
       </c>
+      <c r="E54">
+        <v>1182.81</v>
+      </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>1479.54</v>
+      </c>
+      <c r="K54">
+        <v>47.81</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1729,13 +1795,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>2407.45</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1743,25 +1809,25 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D56">
         <v>1604.21</v>
       </c>
       <c r="E56">
-        <v>1729.36</v>
+        <v>1731.07</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J56">
-        <v>1495.33</v>
+        <v>1495.26</v>
       </c>
       <c r="K56">
-        <v>48.08</v>
+        <v>48.07</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1769,13 +1835,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>3085.57</v>
       </c>
       <c r="D57">
         <v>1915.89</v>
       </c>
+      <c r="E57">
+        <v>1169.68</v>
+      </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J57">
+        <v>1476.11</v>
+      </c>
+      <c r="K57">
+        <v>47.47</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1783,13 +1861,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>3141</v>
       </c>
       <c r="D58">
         <v>2104.94</v>
       </c>
+      <c r="E58">
+        <v>1036.06</v>
+      </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J58">
+        <v>1451.66</v>
+      </c>
+      <c r="K58">
+        <v>46.67</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1797,13 +1887,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59">
         <v>2208.2</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1811,13 +1901,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>3085.57</v>
       </c>
       <c r="D60">
         <v>1892.43</v>
       </c>
+      <c r="E60">
+        <v>1193.14</v>
+      </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G60">
         <v>1.01</v>
@@ -1827,6 +1923,12 @@
       </c>
       <c r="I60">
         <v>1911.65</v>
+      </c>
+      <c r="J60">
+        <v>1438.05</v>
+      </c>
+      <c r="K60">
+        <v>46.25</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1834,13 +1936,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>3141</v>
       </c>
       <c r="D61">
         <v>2023.04</v>
       </c>
+      <c r="E61">
+        <v>1117.96</v>
+      </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J61">
+        <v>1422.05</v>
+      </c>
+      <c r="K61">
+        <v>45.71</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1848,13 +1962,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>2277.78</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1862,13 +1976,170 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>2587.36</v>
       </c>
       <c r="F63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64">
+        <v>3085.57</v>
+      </c>
+      <c r="D64">
+        <v>1896.39</v>
+      </c>
+      <c r="E64">
+        <v>1189.18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64">
+        <v>1410.96</v>
+      </c>
+      <c r="K64">
+        <v>45.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65">
+        <v>3141</v>
+      </c>
+      <c r="D65">
+        <v>1997.61</v>
+      </c>
+      <c r="E65">
+        <v>1143.39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>1398.8</v>
+      </c>
+      <c r="K65">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>1807.56</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
         <v>62</v>
+      </c>
+      <c r="D67">
+        <v>2438.86</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>3141</v>
+      </c>
+      <c r="D68">
+        <v>1952.38</v>
+      </c>
+      <c r="E68">
+        <v>1188.62</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68">
+        <v>1.44</v>
+      </c>
+      <c r="H68">
+        <v>43.72</v>
+      </c>
+      <c r="I68">
+        <v>1349.14</v>
+      </c>
+      <c r="J68">
+        <v>1389.66</v>
+      </c>
+      <c r="K68">
+        <v>44.65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>1632.07</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>2171.03</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>2443.08</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1154.86</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2087.86</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2148.43</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2202.86</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1933.57</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1753.71</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1426.86</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1220.57</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>946.14</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>873.71</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>744.29</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>602.14</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>565.86</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>524.14</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>748.86</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>786.29</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>1140.43</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1038.43</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>1007.43</v>
@@ -1013,7 +1019,7 @@
         <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>973.4299999999999</v>
@@ -1033,7 +1039,7 @@
         <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>894.5700000000001</v>
@@ -1053,7 +1059,7 @@
         <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>846.4299999999999</v>
@@ -1073,7 +1079,7 @@
         <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>733.14</v>
@@ -1093,7 +1099,7 @@
         <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>797.86</v>
@@ -1113,7 +1119,7 @@
         <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>766.4299999999999</v>
@@ -1133,7 +1139,7 @@
         <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>702.14</v>
@@ -1153,7 +1159,7 @@
         <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>714.29</v>
@@ -1173,7 +1179,7 @@
         <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>717.4299999999999</v>
@@ -1193,7 +1199,7 @@
         <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>821.5700000000001</v>
@@ -1213,7 +1219,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>819</v>
@@ -1233,7 +1239,7 @@
         <v>62.71</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>994.86</v>
@@ -1253,7 +1259,7 @@
         <v>68.75</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>1087.29</v>
@@ -1273,7 +1279,7 @@
         <v>235.51</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>1466.29</v>
@@ -1293,7 +1299,7 @@
         <v>632.61</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>1447.14</v>
@@ -1313,7 +1319,7 @@
         <v>544.77</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2150.29</v>
@@ -1333,7 +1339,7 @@
         <v>1159.22</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2383.14</v>
@@ -1353,7 +1359,7 @@
         <v>1130.68</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>2607.86</v>
@@ -1373,7 +1379,7 @@
         <v>1076.98</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>2243.29</v>
@@ -1393,7 +1399,7 @@
         <v>745.65</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40">
         <v>745.65</v>
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2604.43</v>
@@ -1419,7 +1425,7 @@
         <v>1063.95</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>904.8</v>
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>3174.29</v>
@@ -1445,7 +1451,7 @@
         <v>1566.01</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>1125.2</v>
@@ -1459,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>3335.29</v>
@@ -1471,7 +1477,7 @@
         <v>1832.62</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J43">
         <v>1302.06</v>
@@ -1485,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2604.43</v>
@@ -1497,7 +1503,7 @@
         <v>960.6</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H44">
         <v>33.55</v>
@@ -1517,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>3174.29</v>
@@ -1529,7 +1535,7 @@
         <v>1379.4</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>1258.04</v>
@@ -1543,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1555,7 +1561,7 @@
         <v>1483.9</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>1290.3</v>
@@ -1569,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>3085.57</v>
@@ -1581,7 +1587,7 @@
         <v>1192.79</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
         <v>1278.11</v>
@@ -1595,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>3174.29</v>
@@ -1607,7 +1613,7 @@
         <v>2081.59</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G48">
         <v>0.87</v>
@@ -1630,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>3335.29</v>
@@ -1642,7 +1648,7 @@
         <v>2190.2</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>1449.67</v>
@@ -1656,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>3085.57</v>
@@ -1668,7 +1674,7 @@
         <v>1761.42</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J50">
         <v>1478.01</v>
@@ -1682,25 +1688,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D51">
         <v>1054.03</v>
       </c>
       <c r="E51">
-        <v>2086.97</v>
+        <v>2096.54</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J51">
-        <v>1528.76</v>
+        <v>1529.55</v>
       </c>
       <c r="K51">
-        <v>49.72</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1708,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>3335.29</v>
@@ -1720,7 +1726,7 @@
         <v>1426.52</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G52">
         <v>1.15</v>
@@ -1732,10 +1738,10 @@
         <v>1964.95</v>
       </c>
       <c r="J52">
-        <v>1520.89</v>
+        <v>1521.63</v>
       </c>
       <c r="K52">
-        <v>49.18</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1743,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>3085.57</v>
@@ -1755,13 +1761,13 @@
         <v>1238.63</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J53">
-        <v>1500.73</v>
+        <v>1501.42</v>
       </c>
       <c r="K53">
-        <v>48.54</v>
+        <v>48.55</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1769,25 +1775,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D54">
         <v>1958.19</v>
       </c>
       <c r="E54">
-        <v>1182.81</v>
+        <v>1192.38</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>1479.54</v>
+        <v>1480.81</v>
       </c>
       <c r="K54">
-        <v>47.81</v>
+        <v>47.83</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1795,13 +1801,13 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>2407.45</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1809,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>3335.29</v>
@@ -1821,13 +1827,13 @@
         <v>1731.07</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J56">
-        <v>1495.26</v>
+        <v>1496.45</v>
       </c>
       <c r="K56">
-        <v>48.07</v>
+        <v>48.09</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1835,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>3085.57</v>
@@ -1847,13 +1853,13 @@
         <v>1169.68</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J57">
-        <v>1476.11</v>
+        <v>1477.23</v>
       </c>
       <c r="K57">
-        <v>47.47</v>
+        <v>47.49</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1861,25 +1867,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D58">
         <v>2104.94</v>
       </c>
       <c r="E58">
-        <v>1036.06</v>
+        <v>1045.64</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J58">
-        <v>1451.66</v>
+        <v>1453.25</v>
       </c>
       <c r="K58">
-        <v>46.67</v>
+        <v>46.69</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1887,13 +1893,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>2208.2</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1901,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>3085.57</v>
@@ -1913,7 +1919,7 @@
         <v>1193.14</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G60">
         <v>1.01</v>
@@ -1925,10 +1931,10 @@
         <v>1911.65</v>
       </c>
       <c r="J60">
-        <v>1438.05</v>
+        <v>1439.56</v>
       </c>
       <c r="K60">
-        <v>46.25</v>
+        <v>46.27</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1936,25 +1942,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D61">
         <v>2023.04</v>
       </c>
       <c r="E61">
-        <v>1117.96</v>
+        <v>1127.53</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J61">
-        <v>1422.05</v>
+        <v>1423.96</v>
       </c>
       <c r="K61">
-        <v>45.71</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1962,13 +1968,13 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>2277.78</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1976,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>2587.36</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1990,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64">
         <v>3085.57</v>
@@ -2002,13 +2008,13 @@
         <v>1189.18</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J64">
-        <v>1410.96</v>
+        <v>1412.78</v>
       </c>
       <c r="K64">
-        <v>45.37</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2016,25 +2022,25 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D65">
         <v>1997.61</v>
       </c>
       <c r="E65">
-        <v>1143.39</v>
+        <v>1152.96</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J65">
-        <v>1398.8</v>
+        <v>1400.97</v>
       </c>
       <c r="K65">
-        <v>44.96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2042,13 +2048,13 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <v>1807.56</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2056,13 +2062,13 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D67">
         <v>2438.86</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2070,19 +2076,19 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D68">
         <v>1952.38</v>
       </c>
       <c r="E68">
-        <v>1188.62</v>
+        <v>1198.19</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G68">
         <v>1.44</v>
@@ -2094,10 +2100,10 @@
         <v>1349.14</v>
       </c>
       <c r="J68">
-        <v>1389.66</v>
+        <v>1392.16</v>
       </c>
       <c r="K68">
-        <v>44.65</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2105,13 +2111,13 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <v>1632.07</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2119,13 +2125,13 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>2171.03</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2133,13 +2139,149 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>2443.08</v>
       </c>
       <c r="F71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72">
+        <v>3150.57</v>
+      </c>
+      <c r="D72">
+        <v>1952.41</v>
+      </c>
+      <c r="E72">
+        <v>1198.16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>1349.17</v>
+      </c>
+      <c r="J72">
+        <v>1384.07</v>
+      </c>
+      <c r="K72">
+        <v>44.42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>1632.07</v>
+      </c>
+      <c r="F73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74">
+        <v>2171.03</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
         <v>64</v>
+      </c>
+      <c r="D75">
+        <v>2443.1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>1786.73</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76">
+        <v>1.74</v>
+      </c>
+      <c r="H76">
+        <v>42.39</v>
+      </c>
+      <c r="I76">
+        <v>1335.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>1954.67</v>
+      </c>
+      <c r="F77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>2390.52</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79">
+        <v>2189.94</v>
+      </c>
+      <c r="F79" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1154.86</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2087.86</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2148.43</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2202.86</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1933.57</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1753.71</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1426.86</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1220.57</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>946.14</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>873.71</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>744.29</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>602.14</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>565.86</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>524.14</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>748.86</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>786.29</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1140.43</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1038.43</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>1007.43</v>
@@ -1019,7 +1025,7 @@
         <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>973.4299999999999</v>
@@ -1039,7 +1045,7 @@
         <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>894.5700000000001</v>
@@ -1059,7 +1065,7 @@
         <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>846.4299999999999</v>
@@ -1079,7 +1085,7 @@
         <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>733.14</v>
@@ -1099,7 +1105,7 @@
         <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>797.86</v>
@@ -1119,7 +1125,7 @@
         <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>766.4299999999999</v>
@@ -1139,7 +1145,7 @@
         <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>702.14</v>
@@ -1159,7 +1165,7 @@
         <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>714.29</v>
@@ -1179,7 +1185,7 @@
         <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>717.4299999999999</v>
@@ -1199,7 +1205,7 @@
         <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>821.5700000000001</v>
@@ -1219,7 +1225,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>819</v>
@@ -1239,7 +1245,7 @@
         <v>62.71</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>994.86</v>
@@ -1259,7 +1265,7 @@
         <v>68.75</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>1087.29</v>
@@ -1279,7 +1285,7 @@
         <v>235.51</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>1466.29</v>
@@ -1299,7 +1305,7 @@
         <v>632.61</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>1447.14</v>
@@ -1319,7 +1325,7 @@
         <v>544.77</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>2150.29</v>
@@ -1339,7 +1345,7 @@
         <v>1159.22</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2383.14</v>
@@ -1359,7 +1365,7 @@
         <v>1130.68</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>2607.86</v>
@@ -1379,7 +1385,7 @@
         <v>1076.98</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>2243.29</v>
@@ -1399,7 +1405,7 @@
         <v>745.65</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J40">
         <v>745.65</v>
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>2604.43</v>
@@ -1425,7 +1431,7 @@
         <v>1063.95</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J41">
         <v>904.8</v>
@@ -1439,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>3174.29</v>
@@ -1451,7 +1457,7 @@
         <v>1566.01</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J42">
         <v>1125.2</v>
@@ -1465,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>3335.29</v>
@@ -1477,7 +1483,7 @@
         <v>1832.62</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J43">
         <v>1302.06</v>
@@ -1491,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2604.43</v>
@@ -1503,7 +1509,7 @@
         <v>960.6</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H44">
         <v>33.55</v>
@@ -1523,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>3174.29</v>
@@ -1535,7 +1541,7 @@
         <v>1379.4</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>1258.04</v>
@@ -1549,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1561,7 +1567,7 @@
         <v>1483.9</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
         <v>1290.3</v>
@@ -1575,25 +1581,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D47">
         <v>1892.79</v>
       </c>
       <c r="E47">
-        <v>1192.79</v>
+        <v>1166.21</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
-        <v>1278.11</v>
+        <v>1274.79</v>
       </c>
       <c r="K47">
-        <v>42.73</v>
+        <v>42.67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1601,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>3174.29</v>
@@ -1613,7 +1619,7 @@
         <v>2081.59</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>0.87</v>
@@ -1625,10 +1631,10 @@
         <v>1332.98</v>
       </c>
       <c r="J48">
-        <v>1367.39</v>
+        <v>1364.44</v>
       </c>
       <c r="K48">
-        <v>45.27</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1636,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>3335.29</v>
@@ -1648,13 +1654,13 @@
         <v>2190.2</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49">
-        <v>1449.67</v>
+        <v>1447.01</v>
       </c>
       <c r="K49">
-        <v>47.31</v>
+        <v>47.26</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1662,25 +1668,25 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D50">
         <v>1324.15</v>
       </c>
       <c r="E50">
-        <v>1761.42</v>
+        <v>1734.85</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J50">
-        <v>1478.01</v>
+        <v>1473.18</v>
       </c>
       <c r="K50">
-        <v>48.2</v>
+        <v>48.12</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1688,25 +1694,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D51">
         <v>1054.03</v>
       </c>
       <c r="E51">
-        <v>2096.54</v>
+        <v>2076.26</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
-        <v>1529.55</v>
+        <v>1523.44</v>
       </c>
       <c r="K51">
-        <v>49.73</v>
+        <v>49.63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1714,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>3335.29</v>
@@ -1726,7 +1732,7 @@
         <v>1426.52</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G52">
         <v>1.15</v>
@@ -1738,10 +1744,10 @@
         <v>1964.95</v>
       </c>
       <c r="J52">
-        <v>1521.63</v>
+        <v>1515.98</v>
       </c>
       <c r="K52">
-        <v>49.19</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1749,25 +1755,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D53">
         <v>1846.94</v>
       </c>
       <c r="E53">
-        <v>1238.63</v>
+        <v>1212.06</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J53">
-        <v>1501.42</v>
+        <v>1494.27</v>
       </c>
       <c r="K53">
-        <v>48.55</v>
+        <v>48.43</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1775,25 +1781,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D54">
         <v>1958.19</v>
       </c>
       <c r="E54">
-        <v>1192.38</v>
+        <v>1172.1</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J54">
-        <v>1480.81</v>
+        <v>1472.79</v>
       </c>
       <c r="K54">
-        <v>47.83</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1801,13 +1807,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <v>2986.71</v>
       </c>
       <c r="D55">
         <v>2407.45</v>
       </c>
+      <c r="E55">
+        <v>579.26</v>
+      </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J55">
+        <v>1416.95</v>
+      </c>
+      <c r="K55">
+        <v>45.93</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1815,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>3335.29</v>
@@ -1827,13 +1845,13 @@
         <v>1731.07</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J56">
-        <v>1496.45</v>
+        <v>1435.43</v>
       </c>
       <c r="K56">
-        <v>48.09</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1841,25 +1859,25 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D57">
         <v>1915.89</v>
       </c>
       <c r="E57">
-        <v>1169.68</v>
+        <v>1143.11</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J57">
-        <v>1477.23</v>
+        <v>1419.19</v>
       </c>
       <c r="K57">
-        <v>47.49</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1867,25 +1885,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D58">
         <v>2104.94</v>
       </c>
       <c r="E58">
-        <v>1045.64</v>
+        <v>1025.35</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J58">
-        <v>1453.25</v>
+        <v>1398.46</v>
       </c>
       <c r="K58">
-        <v>46.69</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1893,13 +1911,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>2986.71</v>
       </c>
       <c r="D59">
         <v>2208.2</v>
       </c>
+      <c r="E59">
+        <v>778.52</v>
+      </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J59">
+        <v>1367.46</v>
+      </c>
+      <c r="K59">
+        <v>44.15</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1907,19 +1937,19 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D60">
         <v>1892.43</v>
       </c>
       <c r="E60">
-        <v>1193.14</v>
+        <v>1166.57</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>1.01</v>
@@ -1931,10 +1961,10 @@
         <v>1911.65</v>
       </c>
       <c r="J60">
-        <v>1439.56</v>
+        <v>1357.89</v>
       </c>
       <c r="K60">
-        <v>46.27</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1942,25 +1972,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D61">
         <v>2023.04</v>
       </c>
       <c r="E61">
-        <v>1127.53</v>
+        <v>1107.24</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J61">
-        <v>1423.96</v>
+        <v>1346.5</v>
       </c>
       <c r="K61">
-        <v>45.75</v>
+        <v>43.47</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1968,13 +1998,25 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>2986.71</v>
       </c>
       <c r="D62">
         <v>2277.78</v>
       </c>
+      <c r="E62">
+        <v>708.9400000000001</v>
+      </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J62">
+        <v>1318.78</v>
+      </c>
+      <c r="K62">
+        <v>42.62</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1982,13 +2024,25 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>2487.29</v>
       </c>
       <c r="D63">
         <v>2587.36</v>
       </c>
+      <c r="E63">
+        <v>100.07</v>
+      </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>1268</v>
+      </c>
+      <c r="K63">
+        <v>41.01</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1996,25 +2050,25 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D64">
         <v>1896.39</v>
       </c>
       <c r="E64">
-        <v>1189.18</v>
+        <v>1162.61</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J64">
-        <v>1412.78</v>
+        <v>1263.79</v>
       </c>
       <c r="K64">
-        <v>45.4</v>
+        <v>40.89</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2022,25 +2076,25 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D65">
         <v>1997.61</v>
       </c>
       <c r="E65">
-        <v>1152.96</v>
+        <v>1132.68</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J65">
-        <v>1400.97</v>
+        <v>1258.74</v>
       </c>
       <c r="K65">
-        <v>45</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2048,13 +2102,25 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>2986.71</v>
       </c>
       <c r="D66">
         <v>1807.56</v>
       </c>
+      <c r="E66">
+        <v>1179.15</v>
+      </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J66">
+        <v>1255.8</v>
+      </c>
+      <c r="K66">
+        <v>40.66</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2062,13 +2128,25 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>2487.29</v>
       </c>
       <c r="D67">
         <v>2438.86</v>
       </c>
+      <c r="E67">
+        <v>48.43</v>
+      </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J67">
+        <v>1212.68</v>
+      </c>
+      <c r="K67">
+        <v>39.28</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2076,19 +2154,19 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D68">
         <v>1952.38</v>
       </c>
       <c r="E68">
-        <v>1198.19</v>
+        <v>1177.91</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G68">
         <v>1.44</v>
@@ -2100,10 +2178,10 @@
         <v>1349.14</v>
       </c>
       <c r="J68">
-        <v>1392.16</v>
+        <v>1211.48</v>
       </c>
       <c r="K68">
-        <v>44.7</v>
+        <v>39.22</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2111,13 +2189,25 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>2986.71</v>
       </c>
       <c r="D69">
         <v>1632.07</v>
       </c>
+      <c r="E69">
+        <v>1354.65</v>
+      </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>1216.25</v>
+      </c>
+      <c r="K69">
+        <v>39.43</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2125,13 +2215,25 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>2487.29</v>
       </c>
       <c r="D70">
         <v>2171.03</v>
       </c>
+      <c r="E70">
+        <v>316.26</v>
+      </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>1187.22</v>
+      </c>
+      <c r="K70">
+        <v>38.57</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2139,13 +2241,25 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>1906.71</v>
       </c>
       <c r="D71">
         <v>2443.08</v>
       </c>
+      <c r="E71">
+        <v>536.37</v>
+      </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>1166.88</v>
+      </c>
+      <c r="K71">
+        <v>38.24</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2153,28 +2267,28 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D72">
         <v>1952.41</v>
       </c>
       <c r="E72">
-        <v>1198.16</v>
+        <v>1177.88</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I72">
         <v>1349.17</v>
       </c>
       <c r="J72">
-        <v>1384.07</v>
+        <v>1167.21</v>
       </c>
       <c r="K72">
-        <v>44.42</v>
+        <v>38.22</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2182,13 +2296,25 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>2986.71</v>
       </c>
       <c r="D73">
         <v>1632.07</v>
       </c>
+      <c r="E73">
+        <v>1354.65</v>
+      </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J73">
+        <v>1172.72</v>
+      </c>
+      <c r="K73">
+        <v>38.43</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2196,13 +2322,25 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>2487.29</v>
       </c>
       <c r="D74">
         <v>2171.03</v>
       </c>
+      <c r="E74">
+        <v>316.26</v>
+      </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J74">
+        <v>1148.25</v>
+      </c>
+      <c r="K74">
+        <v>37.7</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2210,13 +2348,25 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>1906.71</v>
       </c>
       <c r="D75">
         <v>2443.1</v>
       </c>
+      <c r="E75">
+        <v>536.39</v>
+      </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J75">
+        <v>1131.26</v>
+      </c>
+      <c r="K75">
+        <v>37.43</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2224,13 +2374,19 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C76">
+        <v>2986.71</v>
       </c>
       <c r="D76">
         <v>1786.73</v>
       </c>
+      <c r="E76">
+        <v>1199.98</v>
+      </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G76">
         <v>1.74</v>
@@ -2240,6 +2396,12 @@
       </c>
       <c r="I76">
         <v>1335.5</v>
+      </c>
+      <c r="J76">
+        <v>1133.11</v>
+      </c>
+      <c r="K76">
+        <v>37.5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2247,13 +2409,25 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <v>2487.29</v>
       </c>
       <c r="D77">
         <v>1954.67</v>
       </c>
+      <c r="E77">
+        <v>532.62</v>
+      </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J77">
+        <v>1117.31</v>
+      </c>
+      <c r="K77">
+        <v>37.08</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2261,13 +2435,25 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C78">
+        <v>1906.71</v>
       </c>
       <c r="D78">
         <v>2390.52</v>
       </c>
+      <c r="E78">
+        <v>483.8</v>
+      </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J78">
+        <v>1101.07</v>
+      </c>
+      <c r="K78">
+        <v>36.78</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2275,13 +2461,194 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D79">
         <v>2189.94</v>
       </c>
       <c r="F79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>2986.71</v>
+      </c>
+      <c r="D80">
+        <v>1786.73</v>
+      </c>
+      <c r="E80">
+        <v>1199.98</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80">
+        <v>1103.54</v>
+      </c>
+      <c r="K80">
+        <v>36.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81">
+        <v>2487.29</v>
+      </c>
+      <c r="D81">
+        <v>1954.67</v>
+      </c>
+      <c r="E81">
+        <v>532.62</v>
+      </c>
+      <c r="F81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J81">
+        <v>1089.62</v>
+      </c>
+      <c r="K81">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82">
+        <v>1906.71</v>
+      </c>
+      <c r="D82">
+        <v>2390.52</v>
+      </c>
+      <c r="E82">
+        <v>483.8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+      <c r="J82">
+        <v>1075.19</v>
+      </c>
+      <c r="K82">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
         <v>66</v>
+      </c>
+      <c r="D83">
+        <v>2189.94</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84">
+        <v>2487.29</v>
+      </c>
+      <c r="D84">
+        <v>2178.02</v>
+      </c>
+      <c r="E84">
+        <v>309.27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84">
+        <v>2.54</v>
+      </c>
+      <c r="H84">
+        <v>34.77</v>
+      </c>
+      <c r="I84">
+        <v>1055.56</v>
+      </c>
+      <c r="J84">
+        <v>1057.38</v>
+      </c>
+      <c r="K84">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85">
+        <v>1906.71</v>
+      </c>
+      <c r="D85">
+        <v>2447.13</v>
+      </c>
+      <c r="E85">
+        <v>540.41</v>
+      </c>
+      <c r="F85" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85">
+        <v>1045.63</v>
+      </c>
+      <c r="K85">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86">
+        <v>2189.64</v>
+      </c>
+      <c r="F86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87">
+        <v>2796.62</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="72">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>29 Mar -- 04 Apr 2020</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1154.86</v>
@@ -636,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -653,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>2087.86</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2148.43</v>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2202.86</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1933.57</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1753.71</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1426.86</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1220.57</v>
@@ -785,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>946.14</v>
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>873.71</v>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>744.29</v>
@@ -845,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>602.14</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>565.86</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>524.14</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>748.86</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>786.29</v>
@@ -945,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>922</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>1140.43</v>
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>1038.43</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>1007.43</v>
@@ -1025,7 +1034,7 @@
         <v>149.05</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>973.4299999999999</v>
@@ -1045,7 +1054,7 @@
         <v>36.85</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>894.5700000000001</v>
@@ -1065,7 +1074,7 @@
         <v>169.56</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>846.4299999999999</v>
@@ -1085,7 +1094,7 @@
         <v>167.19</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>733.14</v>
@@ -1105,7 +1114,7 @@
         <v>236.81</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>797.86</v>
@@ -1125,7 +1134,7 @@
         <v>186.6</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>766.4299999999999</v>
@@ -1145,7 +1154,7 @@
         <v>157.51</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>702.14</v>
@@ -1165,7 +1174,7 @@
         <v>225.54</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>714.29</v>
@@ -1185,7 +1194,7 @@
         <v>152.52</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>717.4299999999999</v>
@@ -1205,7 +1214,7 @@
         <v>181.85</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>821.5700000000001</v>
@@ -1225,7 +1234,7 @@
         <v>80.20999999999999</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>819</v>
@@ -1245,7 +1254,7 @@
         <v>62.71</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>994.86</v>
@@ -1265,7 +1274,7 @@
         <v>68.75</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>1087.29</v>
@@ -1285,7 +1294,7 @@
         <v>235.51</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>1466.29</v>
@@ -1305,7 +1314,7 @@
         <v>632.61</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>1447.14</v>
@@ -1325,7 +1334,7 @@
         <v>544.77</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2150.29</v>
@@ -1345,7 +1354,7 @@
         <v>1159.22</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2383.14</v>
@@ -1365,7 +1374,7 @@
         <v>1130.68</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2607.86</v>
@@ -1385,7 +1394,7 @@
         <v>1076.98</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>2243.29</v>
@@ -1405,7 +1414,7 @@
         <v>745.65</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J40">
         <v>745.65</v>
@@ -1419,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>2604.43</v>
@@ -1431,7 +1440,7 @@
         <v>1063.95</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J41">
         <v>904.8</v>
@@ -1445,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>3174.29</v>
@@ -1457,7 +1466,7 @@
         <v>1566.01</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J42">
         <v>1125.2</v>
@@ -1471,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>3335.29</v>
@@ -1483,7 +1492,7 @@
         <v>1832.62</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J43">
         <v>1302.06</v>
@@ -1497,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>2604.43</v>
@@ -1509,7 +1518,7 @@
         <v>960.6</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H44">
         <v>33.55</v>
@@ -1529,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>3174.29</v>
@@ -1541,7 +1550,7 @@
         <v>1379.4</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J45">
         <v>1258.04</v>
@@ -1555,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1567,7 +1576,7 @@
         <v>1483.9</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J46">
         <v>1290.3</v>
@@ -1581,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>3059</v>
@@ -1593,7 +1602,7 @@
         <v>1166.21</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J47">
         <v>1274.79</v>
@@ -1607,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>3174.29</v>
@@ -1619,7 +1628,7 @@
         <v>2081.59</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G48">
         <v>0.87</v>
@@ -1642,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>3335.29</v>
@@ -1654,7 +1663,7 @@
         <v>2190.2</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J49">
         <v>1447.01</v>
@@ -1668,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>3059</v>
@@ -1680,7 +1689,7 @@
         <v>1734.85</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J50">
         <v>1473.18</v>
@@ -1694,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>3130.29</v>
@@ -1706,7 +1715,7 @@
         <v>2076.26</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J51">
         <v>1523.44</v>
@@ -1720,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>3335.29</v>
@@ -1732,7 +1741,7 @@
         <v>1426.52</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G52">
         <v>1.15</v>
@@ -1755,7 +1764,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>3059</v>
@@ -1767,7 +1776,7 @@
         <v>1212.06</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J53">
         <v>1494.27</v>
@@ -1781,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>3130.29</v>
@@ -1793,7 +1802,7 @@
         <v>1172.1</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54">
         <v>1472.79</v>
@@ -1807,22 +1816,22 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D55">
         <v>2407.45</v>
       </c>
       <c r="E55">
-        <v>579.26</v>
+        <v>583.12</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J55">
-        <v>1416.95</v>
+        <v>1417.19</v>
       </c>
       <c r="K55">
         <v>45.93</v>
@@ -1833,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>3335.29</v>
@@ -1845,13 +1854,13 @@
         <v>1731.07</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>1435.43</v>
+        <v>1435.65</v>
       </c>
       <c r="K56">
-        <v>46.28</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1859,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>3059</v>
@@ -1871,13 +1880,13 @@
         <v>1143.11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J57">
-        <v>1419.19</v>
+        <v>1419.4</v>
       </c>
       <c r="K57">
-        <v>45.78</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1885,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>3130.29</v>
@@ -1897,10 +1906,10 @@
         <v>1025.35</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J58">
-        <v>1398.46</v>
+        <v>1398.66</v>
       </c>
       <c r="K58">
         <v>45.1</v>
@@ -1911,25 +1920,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D59">
         <v>2208.2</v>
       </c>
       <c r="E59">
-        <v>778.52</v>
+        <v>782.38</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J59">
-        <v>1367.46</v>
+        <v>1367.85</v>
       </c>
       <c r="K59">
-        <v>44.15</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1937,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>3059</v>
@@ -1949,7 +1958,7 @@
         <v>1166.57</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G60">
         <v>1.01</v>
@@ -1961,10 +1970,10 @@
         <v>1911.65</v>
       </c>
       <c r="J60">
-        <v>1357.89</v>
+        <v>1358.26</v>
       </c>
       <c r="K60">
-        <v>43.86</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1972,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>3130.29</v>
@@ -1984,13 +1993,13 @@
         <v>1107.24</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J61">
-        <v>1346.5</v>
+        <v>1346.85</v>
       </c>
       <c r="K61">
-        <v>43.47</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1998,25 +2007,25 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D62">
         <v>2277.78</v>
       </c>
       <c r="E62">
-        <v>708.9400000000001</v>
+        <v>712.8</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J62">
-        <v>1318.78</v>
+        <v>1319.28</v>
       </c>
       <c r="K62">
-        <v>42.62</v>
+        <v>42.63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2024,22 +2033,22 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D63">
         <v>2587.36</v>
       </c>
       <c r="E63">
-        <v>100.07</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J63">
-        <v>1268</v>
+        <v>1268.23</v>
       </c>
       <c r="K63">
         <v>41.01</v>
@@ -2050,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>3059</v>
@@ -2062,10 +2071,10 @@
         <v>1162.61</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J64">
-        <v>1263.79</v>
+        <v>1264.01</v>
       </c>
       <c r="K64">
         <v>40.89</v>
@@ -2076,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>3130.29</v>
@@ -2088,10 +2097,10 @@
         <v>1132.68</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J65">
-        <v>1258.74</v>
+        <v>1258.96</v>
       </c>
       <c r="K65">
         <v>40.71</v>
@@ -2102,25 +2111,25 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D66">
         <v>1807.56</v>
       </c>
       <c r="E66">
-        <v>1179.15</v>
+        <v>1183.01</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J66">
-        <v>1255.8</v>
+        <v>1256.14</v>
       </c>
       <c r="K66">
-        <v>40.66</v>
+        <v>40.67</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2128,25 +2137,25 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D67">
         <v>2438.86</v>
       </c>
       <c r="E67">
-        <v>48.43</v>
+        <v>54.43</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J67">
-        <v>1212.68</v>
+        <v>1213.23</v>
       </c>
       <c r="K67">
-        <v>39.28</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2154,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>3130.29</v>
@@ -2166,7 +2175,7 @@
         <v>1177.91</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G68">
         <v>1.44</v>
@@ -2178,10 +2187,10 @@
         <v>1349.14</v>
       </c>
       <c r="J68">
-        <v>1211.48</v>
+        <v>1212.01</v>
       </c>
       <c r="K68">
-        <v>39.22</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2189,25 +2198,25 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D69">
         <v>1632.07</v>
       </c>
       <c r="E69">
-        <v>1354.65</v>
+        <v>1358.5</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J69">
-        <v>1216.25</v>
+        <v>1216.89</v>
       </c>
       <c r="K69">
-        <v>39.43</v>
+        <v>39.44</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2215,25 +2224,25 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D70">
         <v>2171.03</v>
       </c>
       <c r="E70">
-        <v>316.26</v>
+        <v>322.26</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J70">
-        <v>1187.22</v>
+        <v>1188.03</v>
       </c>
       <c r="K70">
-        <v>38.57</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2241,25 +2250,25 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D71">
         <v>2443.08</v>
       </c>
       <c r="E71">
-        <v>536.37</v>
+        <v>592.66</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J71">
-        <v>1166.88</v>
+        <v>1169.43</v>
       </c>
       <c r="K71">
-        <v>38.24</v>
+        <v>38.38</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2267,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72">
         <v>3130.29</v>
@@ -2279,16 +2288,16 @@
         <v>1177.88</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I72">
         <v>1349.17</v>
       </c>
       <c r="J72">
-        <v>1167.21</v>
+        <v>1169.68</v>
       </c>
       <c r="K72">
-        <v>38.22</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2296,25 +2305,25 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D73">
         <v>1632.07</v>
       </c>
       <c r="E73">
-        <v>1354.65</v>
+        <v>1358.5</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>1172.72</v>
+        <v>1175.24</v>
       </c>
       <c r="K73">
-        <v>38.43</v>
+        <v>38.57</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2322,25 +2331,25 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D74">
         <v>2171.03</v>
       </c>
       <c r="E74">
-        <v>316.26</v>
+        <v>322.26</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J74">
-        <v>1148.25</v>
+        <v>1150.87</v>
       </c>
       <c r="K74">
-        <v>37.7</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2348,25 +2357,25 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C75">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D75">
         <v>2443.1</v>
       </c>
       <c r="E75">
-        <v>536.39</v>
+        <v>592.67</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J75">
-        <v>1131.26</v>
+        <v>1135.36</v>
       </c>
       <c r="K75">
-        <v>37.43</v>
+        <v>37.67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2374,19 +2383,19 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D76">
         <v>1786.73</v>
       </c>
       <c r="E76">
-        <v>1199.98</v>
+        <v>1203.84</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G76">
         <v>1.74</v>
@@ -2398,10 +2407,10 @@
         <v>1335.5</v>
       </c>
       <c r="J76">
-        <v>1133.11</v>
+        <v>1137.21</v>
       </c>
       <c r="K76">
-        <v>37.5</v>
+        <v>37.74</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2409,25 +2418,25 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C77">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D77">
         <v>1954.67</v>
       </c>
       <c r="E77">
-        <v>532.62</v>
+        <v>538.62</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J77">
-        <v>1117.31</v>
+        <v>1121.46</v>
       </c>
       <c r="K77">
-        <v>37.08</v>
+        <v>37.32</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2435,25 +2444,25 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D78">
         <v>2390.52</v>
       </c>
       <c r="E78">
-        <v>483.8</v>
+        <v>540.09</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J78">
-        <v>1101.07</v>
+        <v>1106.55</v>
       </c>
       <c r="K78">
-        <v>36.78</v>
+        <v>37.11</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2461,13 +2470,13 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79">
         <v>2189.94</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2475,25 +2484,25 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D80">
         <v>1786.73</v>
       </c>
       <c r="E80">
-        <v>1199.98</v>
+        <v>1203.84</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J80">
-        <v>1103.54</v>
+        <v>1108.98</v>
       </c>
       <c r="K80">
-        <v>36.87</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2501,25 +2510,25 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C81">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D81">
         <v>1954.67</v>
       </c>
       <c r="E81">
-        <v>532.62</v>
+        <v>538.62</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J81">
-        <v>1089.62</v>
+        <v>1095.07</v>
       </c>
       <c r="K81">
-        <v>36.49</v>
+        <v>36.81</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2527,25 +2536,25 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D82">
         <v>2390.52</v>
       </c>
       <c r="E82">
-        <v>483.8</v>
+        <v>540.09</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J82">
-        <v>1075.19</v>
+        <v>1081.86</v>
       </c>
       <c r="K82">
-        <v>36.22</v>
+        <v>36.63</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2553,13 +2562,13 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D83">
         <v>2189.94</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2567,19 +2576,19 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D84">
         <v>2178.02</v>
       </c>
       <c r="E84">
-        <v>309.27</v>
+        <v>315.27</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G84">
         <v>2.54</v>
@@ -2591,10 +2600,10 @@
         <v>1055.56</v>
       </c>
       <c r="J84">
-        <v>1057.38</v>
+        <v>1064.03</v>
       </c>
       <c r="K84">
-        <v>35.67</v>
+        <v>36.07</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2602,25 +2611,25 @@
         <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D85">
         <v>2447.13</v>
       </c>
       <c r="E85">
-        <v>540.41</v>
+        <v>596.7</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J85">
-        <v>1045.63</v>
+        <v>1053.41</v>
       </c>
       <c r="K85">
-        <v>35.5</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2628,13 +2637,13 @@
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D86">
         <v>2189.64</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2642,13 +2651,78 @@
         <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <v>2796.62</v>
       </c>
       <c r="F87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88">
+        <v>2394.17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88">
+        <v>1.1</v>
+      </c>
+      <c r="H88">
+        <v>50.13</v>
+      </c>
+      <c r="I88">
+        <v>927.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
         <v>68</v>
+      </c>
+      <c r="D89">
+        <v>2501.58</v>
+      </c>
+      <c r="F89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>2574.04</v>
+      </c>
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>2473.07</v>
+      </c>
+      <c r="F91" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
